--- a/Cost-Estimates.xlsx
+++ b/Cost-Estimates.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="18040" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="28940" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>Project management</t>
   </si>
@@ -30,12 +31,6 @@
     <t>Website Coding</t>
   </si>
   <si>
-    <t>Mobile Friendly</t>
-  </si>
-  <si>
-    <t>Social Media Links</t>
-  </si>
-  <si>
     <t>Content Development Services</t>
   </si>
   <si>
@@ -48,13 +43,244 @@
     <t>HTML Salary Per Hour</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Profit</t>
   </si>
   <si>
     <t>Per Month</t>
+  </si>
+  <si>
+    <t>Hourly Bill Rate</t>
+  </si>
+  <si>
+    <t>Search Engine Optimization Report</t>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>Information Architecture</t>
+  </si>
+  <si>
+    <t>Project Total</t>
+  </si>
+  <si>
+    <t>Competitive Analysis Report</t>
+  </si>
+  <si>
+    <t>Content Marketing Plan</t>
+  </si>
+  <si>
+    <t>Brand Audit</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Press Releases</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>RSS</t>
+  </si>
+  <si>
+    <t>Analysis of current site (Moz rankings, seo rankings, google webmaster tools, etc.)</t>
+  </si>
+  <si>
+    <t>Client Kickoff Meeting - process, who is doing what, what is important to the client</t>
+  </si>
+  <si>
+    <t>Client Design Review / Selection</t>
+  </si>
+  <si>
+    <t>Asides</t>
+  </si>
+  <si>
+    <t>Calls to Action</t>
+  </si>
+  <si>
+    <t>Testimonials</t>
+  </si>
+  <si>
+    <t>Product Gallery</t>
+  </si>
+  <si>
+    <t>Social Sharing</t>
+  </si>
+  <si>
+    <t>Page Images</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Google Webmaster Tools</t>
+  </si>
+  <si>
+    <t>Total Salary</t>
+  </si>
+  <si>
+    <t>Hours Per Month</t>
+  </si>
+  <si>
+    <t>Responsive Design</t>
+  </si>
+  <si>
+    <t>Social Media Sharing links</t>
+  </si>
+  <si>
+    <t>Backend Services</t>
+  </si>
+  <si>
+    <t>Page Icons (</t>
+  </si>
+  <si>
+    <t>migrating existing content to new platform</t>
+  </si>
+  <si>
+    <t>favicon</t>
+  </si>
+  <si>
+    <t>top 3 nationwide competitors</t>
+  </si>
+  <si>
+    <t>top 3 local competitors</t>
+  </si>
+  <si>
+    <t>recommend top 10 search phrases</t>
+  </si>
+  <si>
+    <t>Site Map</t>
+  </si>
+  <si>
+    <t>template selection</t>
+  </si>
+  <si>
+    <t>Page Map (what is being redirected what is being replaced?)</t>
+  </si>
+  <si>
+    <t>404 page with help</t>
+  </si>
+  <si>
+    <t>site search via Google</t>
+  </si>
+  <si>
+    <t>Analysis of new site (Moz rankings, seo rankings, google webmaster tools, etc.)</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>page headers</t>
+  </si>
+  <si>
+    <t>print styling</t>
+  </si>
+  <si>
+    <t>Websites only work well if people can find what they are looking for as quickly as possible.</t>
+  </si>
+  <si>
+    <t>BiaKelsey company said 97% of consumers use online media prior to buying. Your website look and experience need to support your brand as a professional organization to avoid losing brand perception. 97% source: http://www.biakelsey.com/Company/Press-Releases/100310-Nearly-All-Consumers-Now-Use-Online-Media-to-Shop-Locally.asp</t>
+  </si>
+  <si>
+    <t>Increasingly consumers are only using search engines to discover websites. High ranking websites are critical for new and existing customers to easily find you.</t>
+  </si>
+  <si>
+    <t>What great ideas have your competitors had that you can leverage to increase the effectiveness of your website?</t>
+  </si>
+  <si>
+    <t>identify client goals</t>
+  </si>
+  <si>
+    <t>propose process &amp; timelines</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Eventbrite</t>
+  </si>
+  <si>
+    <t>Meetup</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Today websites are the foundation of an online presence. Engage on other platforms where it makes sense.</t>
+  </si>
+  <si>
+    <t>Google Analytics - Understand how website visitors find you, how long they are on your site, and what they do on your site.</t>
+  </si>
+  <si>
+    <t>Google Webmaster Tools - Understand how your website is working in Google.</t>
+  </si>
+  <si>
+    <t>Newsletter Integration - every business should have a newsletter to reach customers.</t>
+  </si>
+  <si>
+    <t>Renders correctly on the latest versions of Chrome, Firefox, IE,Safari, iPhone, Android</t>
+  </si>
+  <si>
+    <t>Page Titles</t>
+  </si>
+  <si>
+    <t>page headers (h1 tags, etc.)</t>
+  </si>
+  <si>
+    <t>Blog + RSS</t>
+  </si>
+  <si>
+    <t>404 page with help to find or promoting links</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Asides (sidebar)</t>
+  </si>
+  <si>
+    <t>Page Icons (ie fontawesome)</t>
+  </si>
+  <si>
+    <t>artwork headers, gallery images / etc.</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Contingencies</t>
+  </si>
+  <si>
+    <t>Go Live Check</t>
+  </si>
+  <si>
+    <t>Go Live Final Check</t>
+  </si>
+  <si>
+    <t>header fonts, body fonts, etc.</t>
   </si>
 </sst>
 </file>
@@ -65,10 +291,34 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,15 +341,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,149 +716,881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79">
+        <f>SUM(B1:B73)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>120</v>
+      </c>
+      <c r="C81">
+        <f>C82/B79</f>
+        <v>20.512820512820515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <f>B79*B81</f>
+        <v>11700</v>
+      </c>
+      <c r="C82">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1">
+        <v>15</v>
+      </c>
+      <c r="C85" s="1">
+        <f>B85</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86">
+        <f>B79*15</f>
+        <v>1462.5</v>
+      </c>
+      <c r="C86">
+        <f>B86</f>
+        <v>1462.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9">
-        <f>SUM(B1:B8)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10">
-        <f>B9*120</f>
-        <v>5640</v>
-      </c>
-      <c r="C10">
-        <f>2000/B9</f>
-        <v>42.553191489361701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B87">
+        <f>B82-B86</f>
+        <v>10237.5</v>
+      </c>
+      <c r="C87">
+        <f>C82-C86</f>
+        <v>537.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89">
+        <f>2080/12</f>
+        <v>173.33333333333334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <f>B9*15</f>
-        <v>705</v>
-      </c>
-      <c r="C14">
-        <v>2500</v>
-      </c>
-      <c r="D14">
-        <f>C14-B14</f>
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16">
-        <f>40*4</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B16*B13</f>
-        <v>2400</v>
-      </c>
-      <c r="C17" s="2">
-        <f>C14*4</f>
-        <v>10000</v>
-      </c>
-      <c r="D17" s="1">
-        <f>C17-B17</f>
-        <v>7600</v>
-      </c>
+      <c r="B90" s="1">
+        <f>B89*B85</f>
+        <v>2600</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B86"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83">
+        <f>SUM(B1:B82)</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Cost-Estimates.xlsx
+++ b/Cost-Estimates.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="28940" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimated Costs" sheetId="1" r:id="rId1"/>
+    <sheet name="Craig Mitchel Smith Estimates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>Project management</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Brand Audit</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
     <t>Press Releases</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>RSS</t>
-  </si>
-  <si>
     <t>Analysis of current site (Moz rankings, seo rankings, google webmaster tools, etc.)</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>Client Design Review / Selection</t>
   </si>
   <si>
-    <t>Asides</t>
-  </si>
-  <si>
     <t>Calls to Action</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Backend Services</t>
   </si>
   <si>
-    <t>Page Icons (</t>
-  </si>
-  <si>
     <t>migrating existing content to new platform</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>Page Map (what is being redirected what is being replaced?)</t>
   </si>
   <si>
-    <t>404 page with help</t>
-  </si>
-  <si>
     <t>site search via Google</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>Newsletter</t>
   </si>
   <si>
-    <t>page headers</t>
-  </si>
-  <si>
     <t>print styling</t>
   </si>
   <si>
@@ -199,12 +181,6 @@
     <t>What great ideas have your competitors had that you can leverage to increase the effectiveness of your website?</t>
   </si>
   <si>
-    <t>identify client goals</t>
-  </si>
-  <si>
-    <t>propose process &amp; timelines</t>
-  </si>
-  <si>
     <t>Facebook</t>
   </si>
   <si>
@@ -281,6 +257,9 @@
   </si>
   <si>
     <t>header fonts, body fonts, etc.</t>
+  </si>
+  <si>
+    <t>Style Guide</t>
   </si>
 </sst>
 </file>
@@ -341,8 +320,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -368,7 +361,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -378,6 +371,13 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -387,6 +387,13 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B77"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -728,7 +735,7 @@
     <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -736,70 +743,70 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -809,372 +816,387 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>2</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
-        <v>42</v>
+    <row r="47" spans="1:2">
+      <c r="B47" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
         <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="B51" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="B55" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B63">
+      <c r="B65">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>3</v>
       </c>
-      <c r="B69">
+      <c r="B71">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="B70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
-        <v>39</v>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>4</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="B74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="B75" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79">
-        <f>SUM(B1:B73)</f>
-        <v>97.5</v>
+      <c r="B79" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81">
+        <f>SUM(B1:B75)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>9</v>
       </c>
-      <c r="B81">
+      <c r="B83">
         <v>120</v>
       </c>
-      <c r="C81">
-        <f>C82/B79</f>
+      <c r="C83">
+        <f>C84/B81</f>
         <v>20.512820512820515</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>13</v>
       </c>
-      <c r="B82">
-        <f>B79*B81</f>
+      <c r="B84">
+        <f>B81*B83</f>
         <v>11700</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="1">
-        <v>15</v>
-      </c>
-      <c r="C85" s="1">
-        <f>B85</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86">
-        <f>B79*15</f>
-        <v>1462.5</v>
-      </c>
-      <c r="C86">
-        <f>B86</f>
-        <v>1462.5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87">
-        <f>B82-B86</f>
-        <v>10237.5</v>
-      </c>
-      <c r="C87">
-        <f>C82-C86</f>
-        <v>537.5</v>
+        <v>6</v>
+      </c>
+      <c r="B87" s="1">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1">
+        <f>B87</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88">
+        <f>B81*15</f>
+        <v>1462.5</v>
+      </c>
+      <c r="C88">
+        <f>B88</f>
+        <v>1462.5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B89">
+        <f>B84-B88</f>
+        <v>10237.5</v>
+      </c>
+      <c r="C89">
+        <f>C84-C88</f>
+        <v>537.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91">
         <f>2080/12</f>
         <v>173.33333333333334</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="1">
-        <f>B89*B85</f>
+      <c r="B92" s="1">
+        <f>B91*B87</f>
         <v>2600</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1189,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1210,37 +1232,37 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1253,27 +1275,27 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1286,87 +1308,87 @@
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1376,216 +1398,221 @@
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="B43" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="B44" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
         <v>1.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="B54" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="B55" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3" t="s">
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="3" t="s">
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="B74" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="B75" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="B78" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83">
-        <f>SUM(B1:B82)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84">
+        <f>SUM(B1:B83)</f>
         <v>127.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
